--- a/18_demo.xlsx
+++ b/18_demo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
